--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H267"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>358142.00</t>
+          <t>360142.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>544386.40</t>
+          <t>546386.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>635</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1640820.82</t>
+          <t>1642820.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>705</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1725661.87</t>
+          <t>1729661.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6769593.99</t>
+          <t>6892729.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>146600.00</t>
+          <t>148600.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1429295.61</t>
+          <t>1451045.61</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>415</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2678836.80</t>
+          <t>2738748.80</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>704365.41</t>
+          <t>763028.62</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>192137.00</t>
+          <t>216455.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>186579.25</t>
+          <t>196579.25</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>340987.00</t>
+          <t>344987.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>865158.58</t>
+          <t>879146.16</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>766</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5580811.22</t>
+          <t>5669633.84</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>646072.33</t>
+          <t>651072.33</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>201777.00</t>
+          <t>211777.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>139500.00</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>768873.46</t>
+          <t>783047.46</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>350183.53</t>
+          <t>357683.53</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>245584.95</t>
+          <t>249084.95</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>274855.71</t>
+          <t>276855.71</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>768298.00</t>
+          <t>780298.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>894428.00</t>
+          <t>929730.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>308354.77</t>
+          <t>322354.77</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>337782.04</t>
+          <t>342423.04</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>179694.94</t>
+          <t>181694.94</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>179246.85</t>
+          <t>181246.85</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>118800.00</t>
+          <t>148800.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>149257.84</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Industries extractives</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>488580.00</t>
+          <t>151257.84</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>530881.01</t>
+          <t>527990.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>192944.61</t>
+          <t>573631.01</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1239133.74</t>
+          <t>196944.61</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>56615.26</t>
+          <t>1340214.74</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>62615.26</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>37410.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,12 +5187,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>283410.00</t>
+          <t>37410.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>317606.40</t>
+          <t>315410.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>78362.25</t>
+          <t>348654.17</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>45090.00</t>
+          <t>78362.25</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>268240.87</t>
+          <t>47090.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>193101.00</t>
+          <t>306750.87</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5439,12 +5439,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5461,32 +5461,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>229069.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>211179.33</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>208377.00</t>
+          <t>214679.33</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5565,12 +5565,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>992724.00</t>
+          <t>208377.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5607,12 +5607,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1183662.78</t>
+          <t>992724.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>411</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>6843399.80</t>
+          <t>1217662.78</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>953</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>60350.00</t>
+          <t>6962535.80</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>72975.00</t>
+          <t>60350.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>103926.10</t>
+          <t>72975.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5817,12 +5817,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>906730.10</t>
+          <t>103926.10</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>299308.08</t>
+          <t>906730.10</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>199293.82</t>
+          <t>309308.08</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5943,12 +5943,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>199293.82</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5985,12 +5985,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1008996.69</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6027,12 +6027,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>510361.90</t>
+          <t>1012996.69</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6091,32 +6091,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>44780.00</t>
+          <t>512361.90</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1004490.86</t>
+          <t>44780.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6153,12 +6153,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>84850.00</t>
+          <t>1016290.86</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>80500.00</t>
+          <t>86850.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2273663.21</t>
+          <t>80500.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6279,12 +6279,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2920</t>
+          <t>845</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>9329813.45</t>
+          <t>2355163.21</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6321,12 +6321,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>8196</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>25546358.17</t>
+          <t>9618162.22</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4986</t>
+          <t>8513</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>32304626.60</t>
+          <t>27382204.19</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6405,12 +6405,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>5143</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1864381.33</t>
+          <t>33572426.92</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>574</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>552480.00</t>
+          <t>1906381.33</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1140848.33</t>
+          <t>617028.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>5579417.03</t>
+          <t>1189848.33</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6573,12 +6573,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>3164731.22</t>
+          <t>5783094.77</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6615,12 +6615,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>857</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1380756.73</t>
+          <t>3209331.22</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6657,12 +6657,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>518</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>531827.00</t>
+          <t>1414756.73</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6699,12 +6699,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6721,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4098430.88</t>
+          <t>576827.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6741,12 +6741,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6763,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1436</t>
+          <t>853</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>4419264.58</t>
+          <t>4305703.90</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6783,12 +6783,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6805,32 +6805,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1478</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>41000.00</t>
+          <t>4621120.91</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>101500.00</t>
+          <t>41000.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>201236.00</t>
+          <t>101500.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6909,12 +6909,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>201236.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>358722.37</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7015,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>358722.37</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7057,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>34500.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>47742.20</t>
+          <t>34500.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>47742.20</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>94000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>106457.55</t>
+          <t>94000.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7309,32 +7309,32 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>15800.00</t>
+          <t>106457.55</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>141974.00</t>
+          <t>15800.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>132500.00</t>
+          <t>141974.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7413,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>359933.00</t>
+          <t>132500.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>75500.00</t>
+          <t>359933.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7497,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>345768.34</t>
+          <t>75500.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>345768.34</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>141294.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>112760.60</t>
+          <t>141294.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>112760.60</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>71650.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>181618.00</t>
+          <t>71650.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7939,32 +7939,32 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>181618.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>31000.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>133200.00</t>
+          <t>31000.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>263200.00</t>
+          <t>133200.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>156180.05</t>
+          <t>263200.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>14940.00</t>
+          <t>156180.05</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>14940.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>25220.34</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>25220.34</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8359,32 +8359,32 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>80572.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>80572.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>137119.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>507731.00</t>
+          <t>137119.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>76744.72</t>
+          <t>507731.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>3229975.07</t>
+          <t>76744.72</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>54703.43</t>
+          <t>3229975.07</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>54703.43</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>48616.36</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>640819.67</t>
+          <t>48616.36</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8779,19 +8779,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>640819.67</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>120175.00</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="F201" t="inlineStr">
         <is>
           <t>Normandie</t>
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>105650.00</t>
+          <t>120175.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>105650.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>779106.52</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>198135.35</t>
+          <t>779106.52</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8989,32 +8989,32 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>277575.00</t>
+          <t>198135.35</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>201153.50</t>
+          <t>289772.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>310500.00</t>
+          <t>201153.50</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>1114866.30</t>
+          <t>310500.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>137667.67</t>
+          <t>1114866.30</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>7068999.22</t>
+          <t>137667.67</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>905</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>120238.00</t>
+          <t>7079899.22</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>70000.00</t>
+          <t>120238.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>219000.00</t>
+          <t>70000.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>879106.36</t>
+          <t>219000.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>320437.00</t>
+          <t>889106.36</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>230898.00</t>
+          <t>320437.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>32500.00</t>
+          <t>230898.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1685787.71</t>
+          <t>32500.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>406705.36</t>
+          <t>1685787.71</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9619,32 +9619,32 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>171500.00</t>
+          <t>406705.36</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>239580.52</t>
+          <t>181500.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>17000.00</t>
+          <t>241580.52</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>447520.07</t>
+          <t>17000.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>1594421.16</t>
+          <t>455020.07</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>584</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>318784.00</t>
+          <t>1628477.16</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>7809208.87</t>
+          <t>320784.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>120698.54</t>
+          <t>8618567.89</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>21500.00</t>
+          <t>120698.54</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>230848.00</t>
+          <t>21500.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1147386.26</t>
+          <t>236348.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>350990.52</t>
+          <t>1202297.26</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>283892.59</t>
+          <t>352990.52</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>90500.00</t>
+          <t>285892.59</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1475635.41</t>
+          <t>90500.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10227,12 +10227,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>596756.00</t>
+          <t>1611819.29</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -10291,32 +10291,32 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>70078.00</t>
+          <t>616901.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>72523.00</t>
+          <t>70078.00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10353,12 +10353,12 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>165500.00</t>
+          <t>72523.00</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10395,12 +10395,12 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>508665.00</t>
+          <t>167500.00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10437,12 +10437,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>72003.00</t>
+          <t>508665.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10479,12 +10479,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2674083.49</t>
+          <t>72003.00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10521,12 +10521,12 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>37972.00</t>
+          <t>2674083.49</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>77000.00</t>
+          <t>37972.00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10605,12 +10605,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>42612.00</t>
+          <t>77000.00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10647,12 +10647,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10669,12 +10669,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>605949.53</t>
+          <t>42612.00</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10689,12 +10689,12 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>118323.00</t>
+          <t>605949.53</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10731,12 +10731,12 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>102600.00</t>
+          <t>118323.00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10773,12 +10773,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>102600.00</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10815,12 +10815,12 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>631747.93</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10857,12 +10857,12 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10879,12 +10879,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>173500.00</t>
+          <t>631747.93</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10899,12 +10899,12 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -10921,32 +10921,32 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>82095.28</t>
+          <t>173500.00</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -10963,12 +10963,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>325189.00</t>
+          <t>82095.28</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10983,12 +10983,12 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -11005,12 +11005,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>11359.00</t>
+          <t>327189.00</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11025,12 +11025,12 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -11047,12 +11047,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>595790.00</t>
+          <t>11359.00</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11067,12 +11067,12 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -11089,12 +11089,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2069712.76</t>
+          <t>599290.00</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -11131,12 +11131,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>767</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>1258632.81</t>
+          <t>2077712.76</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -11151,12 +11151,12 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -11173,12 +11173,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>526</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>8671976.34</t>
+          <t>1309632.81</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11193,12 +11193,12 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -11215,12 +11215,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>234183.81</t>
+          <t>8714417.77</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11235,12 +11235,12 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -11257,12 +11257,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>89900.00</t>
+          <t>234183.81</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11277,12 +11277,12 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -11299,12 +11299,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>303442.28</t>
+          <t>89900.00</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -11319,12 +11319,12 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -11341,12 +11341,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>1127866.83</t>
+          <t>303442.28</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11361,12 +11361,12 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -11383,12 +11383,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>779461.71</t>
+          <t>1129866.83</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11403,12 +11403,12 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -11425,12 +11425,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>351705.92</t>
+          <t>794461.71</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11445,12 +11445,12 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -11467,12 +11467,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>90529.00</t>
+          <t>351705.92</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11487,12 +11487,12 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -11509,12 +11509,12 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>1431671.56</t>
+          <t>90529.00</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11529,12 +11529,12 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -11551,30 +11551,72 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>1431671.56</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
           <t>299</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
+      <c r="D268" t="inlineStr">
         <is>
           <t>741313.52</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
+      <c r="H268" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>196579.25</t>
+          <t>201579.25</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>879146.16</t>
+          <t>893226.16</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>191999.78</t>
+          <t>193999.78</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>770</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5669633.84</t>
+          <t>5691633.84</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>357683.53</t>
+          <t>360280.06</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>780298.00</t>
+          <t>825298.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>113500.00</t>
+          <t>160500.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>929730.00</t>
+          <t>1035230.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>322354.77</t>
+          <t>368142.77</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>342423.04</t>
+          <t>344423.04</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>181694.94</t>
+          <t>247694.94</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1012996.69</t>
+          <t>1020996.69</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>8513</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>27382204.19</t>
+          <t>27392204.19</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>5143</t>
+          <t>5144</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>33572426.92</t>
+          <t>33582426.92</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1189848.33</t>
+          <t>1199848.33</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>3209331.22</t>
+          <t>3254331.22</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6763,12 +6763,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>854</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>4305703.90</t>
+          <t>4311753.90</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>599290.00</t>
+          <t>601290.00</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11131,12 +11131,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>768</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2077712.76</t>
+          <t>2083212.76</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -11173,12 +11173,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>527</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>1309632.81</t>
+          <t>1311632.81</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11215,12 +11215,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1529</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>8714417.77</t>
+          <t>9131831.11</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11341,12 +11341,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>303442.28</t>
+          <t>312442.28</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11383,12 +11383,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>1129866.83</t>
+          <t>1201366.83</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11425,12 +11425,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>794461.71</t>
+          <t>829461.71</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>351705.92</t>
+          <t>363705.92</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11551,12 +11551,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>1431671.56</t>
+          <t>1577391.53</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
